--- a/config_debug/fishing3d_kpshb_config.xlsx
+++ b/config_debug/fishing3d_kpshb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -40,19 +40,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6,8,20,50,140,400</t>
+    <t>5,15,60</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60,80,200,500,1400,4000</t>
+    <t>jd|进度值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>600,800,2000,5000,14000,40000</t>
+    <t>show_hb|大厅展示红包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6000,8000,20000,50000,140000,400000</t>
+    <t>500,1500,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,15000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,150,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,950000,4500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,9500000,45000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,95000000,450000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000,950000000,4500000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,6 +178,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -162,7 +197,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,9 +222,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,6 +233,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -485,15 +523,15 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="105.375" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
@@ -515,8 +553,12 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -535,11 +577,17 @@
       <c r="B2" s="1">
         <v>21315</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -549,11 +597,17 @@
       <c r="B3" s="1">
         <v>21316</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -563,11 +617,17 @@
       <c r="B4" s="1">
         <v>21317</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -577,11 +637,17 @@
       <c r="B5" s="1">
         <v>21318</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1502,14 +1568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -1517,13 +1575,13 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -1540,7 +1598,7 @@
 </comments>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1548,7 +1606,7 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
@@ -1556,38 +1614,46 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_debug/fishing3d_kpshb_config.xlsx
+++ b/config_debug/fishing3d_kpshb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -98,6 +98,65 @@
   </si>
   <si>
     <t>1000;3000;5000#5000;10000;15000#40000;50000;60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币;3福利券;5福利券#5000金币;10福利券;15福利券#4万金币;50福利券;60福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币;30福利券;50福利券#5万金币;100福利券;150福利券#40万金币;500福利券;600福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币;300福利券;500福利券#50万金币;1000福利券;1500福利券#400万金币;5000福利券;6000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币;300福利券;500福利券#50万金币;1000福利券;1500福利券#400万金币;5000福利券;6000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币;300福利券;500福利券#500万金币;1万福利券;1.5万福利券#4000万金币;5万福利券;6万福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币;3000福利券;5000福利券#500万金币;1万福利券;1.5万福利券#4000万金币;5万福利券;6万福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +318,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +606,10 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G5"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,7 +619,7 @@
     <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="96.25" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
     <col min="9" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="12" width="18.625" customWidth="1"/>
@@ -583,7 +648,9 @@
       <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -615,6 +682,9 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -638,6 +708,9 @@
       <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -661,6 +734,9 @@
       <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -684,18 +760,113 @@
       <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="5"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1000053</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="5"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000054</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>600</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="5"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1000055</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="5"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1000056</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
@@ -1606,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1788,7 @@
     <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="90.25" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
     <col min="9" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="12" width="18.625" customWidth="1"/>
@@ -1646,7 +1817,9 @@
       <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1678,6 +1851,9 @@
       <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1701,6 +1877,9 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1724,15 +1903,87 @@
       <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1000058</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>600</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1000059</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000060</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="5"/>
@@ -2641,36 +2892,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -2687,6 +2908,36 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
@@ -2696,13 +2947,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2714,13 +2965,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_debug/fishing3d_kpshb_config.xlsx
+++ b/config_debug/fishing3d_kpshb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>100万金币;300福利券;500福利券#500万金币;1万福利券;1.5万福利券#4000万金币;5万福利券;6万福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100万金币;3000福利券;5000福利券#500万金币;1万福利券;1.5万福利券#4000万金币;5万福利券;6万福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -157,6 +153,167 @@
   </si>
   <si>
     <t>actp_own_task_p_jjkpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_value|奖励数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type|奖励类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30,50,50,100,150,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,300,500,500,1000,1500,4000,5000,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,3000,5000,5000,10000,15000,40000,50000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30,50,50000,100,150,400000,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,300,500,500000,1000,1500,4000000,5000,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,3000,5000,5000000,10000,15000,40000000,50000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum"</t>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum"</t>
+  </si>
+  <si>
+    <t>1,3,5,5,10,15,40,50,60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30,50,50,100,150,400,500,600</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300,500,500,1000,1500,4000,5000,6000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,4000,5000,5000,10000,15000,40000,50000,60000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,3,5,5000,10,15,40000,50,60</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30,50,50000,100,150,400000,500,600</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300,500,500000,1000,1500,4000000,5000,6000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,3000,5000,5000000,10000,15000,40000000,50000,60000</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +481,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,11 +780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,8 +796,10 @@
     <col min="6" max="6" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="96.25" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="12" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="53.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="129.25" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
     <col min="13" max="14" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -649,10 +826,14 @@
         <v>14</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -683,7 +864,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -709,7 +896,13 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -735,7 +928,13 @@
         <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -761,7 +960,13 @@
         <v>18</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -787,7 +992,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -813,7 +1024,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -839,7 +1056,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -862,77 +1085,133 @@
         <v>60000</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="5"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D13" s="5"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D14" s="5"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="17"/>
+    </row>
     <row r="43" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43"/>
       <c r="D43"/>
@@ -940,7 +1219,7 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="I43"/>
+      <c r="I43" s="18"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -956,7 +1235,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -972,7 +1251,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" s="18"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -988,7 +1267,7 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" s="18"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -1004,7 +1283,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" s="18"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -1020,7 +1299,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" s="18"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -1036,7 +1315,7 @@
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="I49"/>
+      <c r="I49" s="18"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -1052,7 +1331,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1068,7 +1347,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -1084,7 +1363,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -1100,7 +1379,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -1116,7 +1395,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -1132,7 +1411,7 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55" s="18"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -1148,7 +1427,7 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56" s="18"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -1164,7 +1443,7 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57" s="18"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -1180,7 +1459,7 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" s="18"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -1196,7 +1475,7 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
-      <c r="I59"/>
+      <c r="I59" s="18"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -1212,7 +1491,7 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60"/>
+      <c r="I60" s="18"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -1228,7 +1507,7 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61"/>
+      <c r="I61" s="18"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -1244,7 +1523,7 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="I62"/>
+      <c r="I62" s="18"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -1260,7 +1539,7 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63"/>
+      <c r="I63" s="18"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -1276,7 +1555,7 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" s="18"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -1292,7 +1571,7 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65"/>
+      <c r="I65" s="18"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -1308,7 +1587,7 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66"/>
+      <c r="I66" s="18"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -1324,7 +1603,7 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="I67"/>
+      <c r="I67" s="18"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -1340,7 +1619,7 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68"/>
+      <c r="I68" s="18"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -1356,7 +1635,7 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69"/>
+      <c r="I69" s="18"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -1372,7 +1651,7 @@
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70"/>
+      <c r="I70" s="18"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -1388,7 +1667,7 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71"/>
+      <c r="I71" s="18"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -1404,7 +1683,7 @@
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72"/>
+      <c r="I72" s="18"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -1420,7 +1699,7 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73"/>
+      <c r="I73" s="18"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -1436,7 +1715,7 @@
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74"/>
+      <c r="I74" s="18"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -1452,7 +1731,7 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75"/>
+      <c r="I75" s="18"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -1468,7 +1747,7 @@
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76"/>
+      <c r="I76" s="18"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -1484,7 +1763,7 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
-      <c r="I77"/>
+      <c r="I77" s="18"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -1500,7 +1779,7 @@
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="I78"/>
+      <c r="I78" s="18"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -1516,7 +1795,7 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79"/>
+      <c r="I79" s="18"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -1532,7 +1811,7 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80"/>
+      <c r="I80" s="18"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -1548,7 +1827,7 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="I81"/>
+      <c r="I81" s="18"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -1564,7 +1843,7 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82"/>
+      <c r="I82" s="18"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
@@ -1580,7 +1859,7 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83"/>
+      <c r="I83" s="18"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -1596,7 +1875,7 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84"/>
+      <c r="I84" s="18"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
@@ -1612,7 +1891,7 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="I85"/>
+      <c r="I85" s="18"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -1628,7 +1907,7 @@
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="I86"/>
+      <c r="I86" s="18"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -1644,7 +1923,7 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87"/>
+      <c r="I87" s="18"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -1660,7 +1939,7 @@
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
-      <c r="I88"/>
+      <c r="I88" s="18"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
@@ -1676,7 +1955,7 @@
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
-      <c r="I90"/>
+      <c r="I90" s="18"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
@@ -1692,7 +1971,7 @@
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96"/>
+      <c r="I96" s="18"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
@@ -1708,7 +1987,7 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
-      <c r="I97"/>
+      <c r="I97" s="18"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
@@ -1724,7 +2003,7 @@
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98"/>
+      <c r="I98" s="18"/>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
@@ -1740,7 +2019,7 @@
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99"/>
+      <c r="I99" s="18"/>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
@@ -1756,7 +2035,7 @@
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100"/>
-      <c r="I100"/>
+      <c r="I100" s="18"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
@@ -1766,7 +2045,6 @@
       <c r="P100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N91"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1777,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1790,7 +2068,8 @@
     <col min="6" max="6" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="90.25" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="66.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="50.375" customWidth="1"/>
     <col min="11" max="12" width="18.625" customWidth="1"/>
     <col min="13" max="14" width="24.5" customWidth="1"/>
   </cols>
@@ -1818,10 +2097,14 @@
         <v>14</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1852,7 +2135,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1878,7 +2167,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1904,7 +2199,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1930,7 +2231,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1956,7 +2263,13 @@
         <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1982,77 +2295,134 @@
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="5"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D9" s="5"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="5"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D13" s="5"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D14" s="5"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="17"/>
+    </row>
     <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42"/>
       <c r="D42"/>
@@ -2060,7 +2430,7 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42" s="18"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -2076,7 +2446,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2092,7 +2462,7 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44" s="18"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
@@ -2108,7 +2478,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" s="18"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -2124,7 +2494,7 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" s="18"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -2140,7 +2510,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" s="18"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -2156,7 +2526,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" s="18"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -2172,7 +2542,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2188,7 +2558,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2204,7 +2574,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2220,7 +2590,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2236,7 +2606,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2252,7 +2622,7 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54"/>
+      <c r="I54" s="18"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
@@ -2268,7 +2638,7 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55" s="18"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -2284,7 +2654,7 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56" s="18"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -2300,7 +2670,7 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57" s="18"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -2316,7 +2686,7 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" s="18"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -2332,7 +2702,7 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
-      <c r="I59"/>
+      <c r="I59" s="18"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -2348,7 +2718,7 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60"/>
+      <c r="I60" s="18"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -2364,7 +2734,7 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61"/>
+      <c r="I61" s="18"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -2380,7 +2750,7 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="I62"/>
+      <c r="I62" s="18"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -2396,7 +2766,7 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63"/>
+      <c r="I63" s="18"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -2412,7 +2782,7 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" s="18"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -2428,7 +2798,7 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65"/>
+      <c r="I65" s="18"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -2444,7 +2814,7 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66"/>
+      <c r="I66" s="18"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -2460,7 +2830,7 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="I67"/>
+      <c r="I67" s="18"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -2476,7 +2846,7 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68"/>
+      <c r="I68" s="18"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -2492,7 +2862,7 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69"/>
+      <c r="I69" s="18"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -2508,7 +2878,7 @@
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70"/>
+      <c r="I70" s="18"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -2524,7 +2894,7 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71"/>
+      <c r="I71" s="18"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -2540,7 +2910,7 @@
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72"/>
+      <c r="I72" s="18"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -2556,7 +2926,7 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73"/>
+      <c r="I73" s="18"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -2572,7 +2942,7 @@
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74"/>
+      <c r="I74" s="18"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -2588,7 +2958,7 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75"/>
+      <c r="I75" s="18"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -2604,7 +2974,7 @@
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76"/>
+      <c r="I76" s="18"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -2620,7 +2990,7 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
-      <c r="I77"/>
+      <c r="I77" s="18"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -2636,7 +3006,7 @@
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="I78"/>
+      <c r="I78" s="18"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -2652,7 +3022,7 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79"/>
+      <c r="I79" s="18"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -2668,7 +3038,7 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80"/>
+      <c r="I80" s="18"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -2684,7 +3054,7 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="I81"/>
+      <c r="I81" s="18"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -2700,7 +3070,7 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82"/>
+      <c r="I82" s="18"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
@@ -2716,7 +3086,7 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83"/>
+      <c r="I83" s="18"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -2732,7 +3102,7 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84"/>
+      <c r="I84" s="18"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
@@ -2748,7 +3118,7 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="I85"/>
+      <c r="I85" s="18"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -2764,7 +3134,7 @@
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="I86"/>
+      <c r="I86" s="18"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -2780,7 +3150,7 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87"/>
+      <c r="I87" s="18"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -2796,7 +3166,7 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
-      <c r="I89"/>
+      <c r="I89" s="18"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
@@ -2812,7 +3182,7 @@
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95"/>
+      <c r="I95" s="18"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
@@ -2828,7 +3198,7 @@
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96"/>
+      <c r="I96" s="18"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
@@ -2844,7 +3214,7 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
-      <c r="I97"/>
+      <c r="I97" s="18"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
@@ -2860,7 +3230,7 @@
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98"/>
+      <c r="I98" s="18"/>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
@@ -2876,7 +3246,7 @@
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99"/>
+      <c r="I99" s="18"/>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
@@ -2888,10 +3258,49 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -2908,76 +3317,38 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>